--- a/inventory_reports.xlsx
+++ b/inventory_reports.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="83">
   <si>
     <t>Product_ID</t>
   </si>
@@ -111,6 +111,9 @@
     <t>PRD015</t>
   </si>
   <si>
+    <t>PRD016</t>
+  </si>
+  <si>
     <t>Coca-Cola (330ml)</t>
   </si>
   <si>
@@ -156,6 +159,9 @@
     <t>Mountain Dew (350ml)</t>
   </si>
   <si>
+    <t>Nestea (330ml)</t>
+  </si>
+  <si>
     <t>2024-11-25</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>2024-12-05</t>
   </si>
   <si>
+    <t>2025-03-01</t>
+  </si>
+  <si>
     <t>In Stock</t>
   </si>
   <si>
@@ -234,7 +243,7 @@
     <t>09222345678</t>
   </si>
   <si>
-    <t>09171234567</t>
+    <t>09456123481</t>
   </si>
   <si>
     <t>09356789101</t>
@@ -243,7 +252,7 @@
     <t>orders@gourmetgrocers.com</t>
   </si>
   <si>
-    <t>info@freshfoods.com</t>
+    <t>info@tiamzonfoodco.com</t>
   </si>
   <si>
     <t>info@globalfooddist.com</t>
@@ -252,7 +261,7 @@
     <t>1356 Gen. Luna Street, Intramuros, Manila</t>
   </si>
   <si>
-    <t>1234 Mabini Street, Ermita, Manila</t>
+    <t>273 Harvard Avenue, Pasig</t>
   </si>
   <si>
     <t>345 P. Burgos Street, Makati</t>
@@ -680,7 +689,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -744,25 +753,25 @@
         <v>45463</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J2">
         <v>50</v>
@@ -771,19 +780,19 @@
         <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -794,25 +803,25 @@
         <v>45463</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3">
+        <v>59</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
         <v>64</v>
       </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J3">
         <v>100</v>
@@ -821,19 +830,19 @@
         <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -844,25 +853,25 @@
         <v>45463</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4">
         <v>100</v>
@@ -871,19 +880,19 @@
         <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -894,7 +903,7 @@
         <v>45463</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -903,16 +912,16 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J5">
         <v>120</v>
@@ -921,19 +930,19 @@
         <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -944,7 +953,7 @@
         <v>45463</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -953,31 +962,31 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -988,7 +997,7 @@
         <v>45464</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -997,31 +1006,31 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1032,7 +1041,7 @@
         <v>45464</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -1041,31 +1050,31 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1076,7 +1085,7 @@
         <v>45464</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>50</v>
@@ -1085,31 +1094,31 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1120,7 +1129,7 @@
         <v>45464</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>50</v>
@@ -1129,31 +1138,31 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1164,25 +1173,25 @@
         <v>45464</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J11">
         <v>55</v>
@@ -1191,19 +1200,19 @@
         <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1214,7 +1223,7 @@
         <v>45465</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1223,16 +1232,16 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J12">
         <v>60</v>
@@ -1241,19 +1250,19 @@
         <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1264,7 +1273,7 @@
         <v>45465</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1273,16 +1282,16 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J13">
         <v>200</v>
@@ -1291,19 +1300,19 @@
         <v>90</v>
       </c>
       <c r="L13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1314,7 +1323,7 @@
         <v>45465</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>39</v>
@@ -1323,16 +1332,16 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J14">
         <v>180</v>
@@ -1341,19 +1350,19 @@
         <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1364,7 +1373,7 @@
         <v>45465</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1373,16 +1382,16 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J15">
         <v>95</v>
@@ -1391,19 +1400,19 @@
         <v>50</v>
       </c>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1414,25 +1423,25 @@
         <v>45465</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J16">
         <v>50</v>
@@ -1441,19 +1450,69 @@
         <v>35</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" t="s">
+        <v>79</v>
+      </c>
+      <c r="O16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45465</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17">
+        <v>65</v>
+      </c>
+      <c r="K17">
+        <v>40</v>
+      </c>
+      <c r="L17" t="s">
         <v>73</v>
       </c>
-      <c r="N16" t="s">
+      <c r="M17" t="s">
         <v>76</v>
       </c>
-      <c r="O16" t="s">
+      <c r="N17" t="s">
         <v>79</v>
       </c>
-      <c r="P16" t="s">
-        <v>66</v>
+      <c r="O17" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1463,7 +1522,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1527,25 +1586,25 @@
         <v>45463</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J2">
         <v>50</v>
@@ -1554,19 +1613,19 @@
         <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1577,25 +1636,25 @@
         <v>45463</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3">
+        <v>59</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
         <v>64</v>
       </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J3">
         <v>100</v>
@@ -1604,19 +1663,19 @@
         <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1627,25 +1686,25 @@
         <v>45463</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4">
         <v>100</v>
@@ -1654,19 +1713,19 @@
         <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1677,7 +1736,7 @@
         <v>45463</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -1686,16 +1745,16 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J5">
         <v>120</v>
@@ -1704,19 +1763,19 @@
         <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1727,7 +1786,7 @@
         <v>45463</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -1736,31 +1795,31 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1771,7 +1830,7 @@
         <v>45464</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -1780,31 +1839,31 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1815,7 +1874,7 @@
         <v>45464</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -1824,31 +1883,31 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1859,7 +1918,7 @@
         <v>45464</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>50</v>
@@ -1868,31 +1927,31 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1903,7 +1962,7 @@
         <v>45464</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>50</v>
@@ -1912,31 +1971,31 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1947,25 +2006,25 @@
         <v>45464</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J11">
         <v>55</v>
@@ -1974,19 +2033,19 @@
         <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1997,7 +2056,7 @@
         <v>45465</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -2006,16 +2065,16 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J12">
         <v>60</v>
@@ -2024,19 +2083,19 @@
         <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2047,7 +2106,7 @@
         <v>45465</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2056,16 +2115,16 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J13">
         <v>200</v>
@@ -2074,19 +2133,19 @@
         <v>90</v>
       </c>
       <c r="L13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2097,7 +2156,7 @@
         <v>45465</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>39</v>
@@ -2106,16 +2165,16 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J14">
         <v>180</v>
@@ -2124,19 +2183,19 @@
         <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2147,7 +2206,7 @@
         <v>45465</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2156,16 +2215,16 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J15">
         <v>95</v>
@@ -2174,19 +2233,19 @@
         <v>50</v>
       </c>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2197,25 +2256,25 @@
         <v>45465</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J16">
         <v>50</v>
@@ -2224,19 +2283,69 @@
         <v>35</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" t="s">
+        <v>79</v>
+      </c>
+      <c r="O16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45465</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17">
+        <v>65</v>
+      </c>
+      <c r="K17">
+        <v>40</v>
+      </c>
+      <c r="L17" t="s">
         <v>73</v>
       </c>
-      <c r="N16" t="s">
+      <c r="M17" t="s">
         <v>76</v>
       </c>
-      <c r="O16" t="s">
+      <c r="N17" t="s">
         <v>79</v>
       </c>
-      <c r="P16" t="s">
-        <v>66</v>
+      <c r="O17" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/inventory_reports.xlsx
+++ b/inventory_reports.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="67">
   <si>
     <t>Product_ID</t>
   </si>
@@ -99,21 +99,6 @@
     <t>PRD011</t>
   </si>
   <si>
-    <t>PRD012</t>
-  </si>
-  <si>
-    <t>PRD013</t>
-  </si>
-  <si>
-    <t>PRD014</t>
-  </si>
-  <si>
-    <t>PRD015</t>
-  </si>
-  <si>
-    <t>PRD016</t>
-  </si>
-  <si>
     <t>Coca-Cola (330ml)</t>
   </si>
   <si>
@@ -132,15 +117,9 @@
     <t>Scallop (480g)</t>
   </si>
   <si>
-    <t>Fish cake (1kg)</t>
-  </si>
-  <si>
     <t>Squid (500g)</t>
   </si>
   <si>
-    <t>Fish Fillet (900g)</t>
-  </si>
-  <si>
     <t>Coke Zero (330ml)</t>
   </si>
   <si>
@@ -150,64 +129,40 @@
     <t>Jinro Soju Strawberry (360ml)</t>
   </si>
   <si>
-    <t>Heineken Can (330ml)</t>
-  </si>
-  <si>
-    <t>Tanduay Ice (330ml)</t>
-  </si>
-  <si>
-    <t>Mountain Dew (350ml)</t>
-  </si>
-  <si>
-    <t>Nestea (330ml)</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>2024-12-09</t>
-  </si>
-  <si>
-    <t>2024-10-14</t>
-  </si>
-  <si>
-    <t>2024-09-17</t>
-  </si>
-  <si>
-    <t>2024-07-08</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>2024-06-28</t>
-  </si>
-  <si>
-    <t>2024-06-29</t>
-  </si>
-  <si>
-    <t>2025-05-03</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
+    <t>Mountain Dew (330ml)</t>
+  </si>
+  <si>
+    <t>2024-12-16</t>
+  </si>
+  <si>
+    <t>2024-11-20</t>
+  </si>
+  <si>
+    <t>2024-10-11</t>
+  </si>
+  <si>
+    <t>2024-12-08</t>
   </si>
   <si>
     <t>2024-08-06</t>
   </si>
   <si>
-    <t>2024-07-09</t>
-  </si>
-  <si>
-    <t>2024-07-19</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>2025-03-01</t>
+    <t>2024-08-04</t>
+  </si>
+  <si>
+    <t>2024-06-24</t>
+  </si>
+  <si>
+    <t>2024-09-03</t>
+  </si>
+  <si>
+    <t>2024-09-09</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
   </si>
   <si>
     <t>In Stock</t>
@@ -228,16 +183,16 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Disabled</t>
+    <t>Villatura Softdrink Supply Inc.</t>
   </si>
   <si>
     <t>Gourmet Grocers</t>
   </si>
   <si>
-    <t>Fresh Foods Inc.</t>
-  </si>
-  <si>
-    <t>Global Food Distributors</t>
+    <t>Global Fresh Seafood</t>
+  </si>
+  <si>
+    <t>09123456789</t>
   </si>
   <si>
     <t>09222345678</t>
@@ -246,25 +201,22 @@
     <t>09456123481</t>
   </si>
   <si>
-    <t>09356789101</t>
+    <t>info@villaturasoftdrinksup.com</t>
   </si>
   <si>
     <t>orders@gourmetgrocers.com</t>
   </si>
   <si>
-    <t>info@tiamzonfoodco.com</t>
-  </si>
-  <si>
-    <t>info@globalfooddist.com</t>
+    <t>info@globalfreshseafood.com</t>
+  </si>
+  <si>
+    <t>693 Araneta Avenue, Cubao, Quezon City</t>
   </si>
   <si>
     <t>1356 Gen. Luna Street, Intramuros, Manila</t>
   </si>
   <si>
-    <t>273 Harvard Avenue, Pasig</t>
-  </si>
-  <si>
-    <t>345 P. Burgos Street, Makati</t>
+    <t>679 Kalayaan Avenue, Makati</t>
   </si>
 </sst>
 </file>
@@ -626,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,6 +634,538 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45470</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>72</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45470</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>59</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3">
+        <v>70</v>
+      </c>
+      <c r="K3">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45470</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>69</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4">
+        <v>70</v>
+      </c>
+      <c r="K4">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45470</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5">
+        <v>70</v>
+      </c>
+      <c r="K5">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45470</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45470</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45470</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45470</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45470</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45470</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11">
+        <v>120</v>
+      </c>
+      <c r="K11">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45470</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12">
+        <v>55</v>
+      </c>
+      <c r="K12">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -689,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -750,49 +1234,49 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>45463</v>
+        <v>45470</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J2">
         <v>50</v>
       </c>
       <c r="K2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="O2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -800,10 +1284,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="2">
-        <v>45463</v>
+        <v>45470</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>59</v>
@@ -812,37 +1296,37 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
         <v>49</v>
       </c>
-      <c r="G3" t="s">
-        <v>64</v>
-      </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -850,49 +1334,49 @@
         <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>45463</v>
+        <v>45470</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K4">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -900,49 +1384,49 @@
         <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>45463</v>
+        <v>45470</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>32</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5">
         <v>70</v>
       </c>
-      <c r="J5">
-        <v>120</v>
-      </c>
       <c r="K5">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -950,43 +1434,43 @@
         <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>45463</v>
+        <v>45470</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -994,43 +1478,43 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>45464</v>
+        <v>45470</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="G7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" t="s">
-        <v>68</v>
-      </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="P7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1038,43 +1522,43 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>45464</v>
+        <v>45470</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="P8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1082,43 +1566,49 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>45464</v>
+        <v>45470</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
         <v>55</v>
       </c>
-      <c r="G9" t="s">
+      <c r="M9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" t="s">
         <v>64</v>
       </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" t="s">
-        <v>75</v>
-      </c>
-      <c r="N9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" t="s">
-        <v>81</v>
-      </c>
       <c r="P9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1126,43 +1616,49 @@
         <v>24</v>
       </c>
       <c r="B10" s="2">
-        <v>45464</v>
+        <v>45470</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" t="s">
         <v>64</v>
       </c>
-      <c r="H10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O10" t="s">
-        <v>81</v>
-      </c>
       <c r="P10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1170,49 +1666,49 @@
         <v>25</v>
       </c>
       <c r="B11" s="2">
-        <v>45464</v>
+        <v>45470</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11">
+        <v>120</v>
+      </c>
+      <c r="K11">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" t="s">
         <v>65</v>
       </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11">
-        <v>55</v>
-      </c>
-      <c r="K11">
-        <v>35</v>
-      </c>
-      <c r="L11" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" t="s">
-        <v>80</v>
-      </c>
       <c r="P11" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1220,299 +1716,49 @@
         <v>26</v>
       </c>
       <c r="B12" s="2">
-        <v>45465</v>
+        <v>45470</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="J12">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K12">
         <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="N12" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="P12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2">
-        <v>45465</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13">
-        <v>200</v>
-      </c>
-      <c r="K13">
-        <v>90</v>
-      </c>
-      <c r="L13" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" t="s">
-        <v>77</v>
-      </c>
-      <c r="O13" t="s">
-        <v>80</v>
-      </c>
-      <c r="P13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2">
-        <v>45465</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14">
-        <v>39</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14">
-        <v>180</v>
-      </c>
-      <c r="K14">
-        <v>150</v>
-      </c>
-      <c r="L14" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" t="s">
-        <v>77</v>
-      </c>
-      <c r="O14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2">
-        <v>45465</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15">
-        <v>95</v>
-      </c>
-      <c r="K15">
-        <v>50</v>
-      </c>
-      <c r="L15" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" t="s">
-        <v>77</v>
-      </c>
-      <c r="O15" t="s">
-        <v>80</v>
-      </c>
-      <c r="P15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2">
-        <v>45465</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16">
-        <v>50</v>
-      </c>
-      <c r="K16">
-        <v>35</v>
-      </c>
-      <c r="L16" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N16" t="s">
-        <v>79</v>
-      </c>
-      <c r="O16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2">
-        <v>45465</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17">
-        <v>65</v>
-      </c>
-      <c r="K17">
-        <v>40</v>
-      </c>
-      <c r="L17" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" t="s">
-        <v>76</v>
-      </c>
-      <c r="N17" t="s">
-        <v>79</v>
-      </c>
-      <c r="O17" t="s">
-        <v>82</v>
-      </c>
-      <c r="P17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1522,7 +1768,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1583,49 +1829,49 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>45463</v>
+        <v>45470</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J2">
         <v>50</v>
       </c>
       <c r="K2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="O2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1633,10 +1879,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="2">
-        <v>45463</v>
+        <v>45470</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>59</v>
@@ -1645,37 +1891,37 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
         <v>49</v>
       </c>
-      <c r="G3" t="s">
-        <v>64</v>
-      </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1683,49 +1929,49 @@
         <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>45463</v>
+        <v>45470</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K4">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1733,49 +1979,49 @@
         <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>45463</v>
+        <v>45470</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>32</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5">
         <v>70</v>
       </c>
-      <c r="J5">
-        <v>120</v>
-      </c>
       <c r="K5">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1783,43 +2029,43 @@
         <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>45463</v>
+        <v>45470</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1827,43 +2073,43 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>45464</v>
+        <v>45470</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="G7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" t="s">
-        <v>68</v>
-      </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="P7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1871,43 +2117,43 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>45464</v>
+        <v>45470</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="P8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1915,43 +2161,49 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>45464</v>
+        <v>45470</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
         <v>55</v>
       </c>
-      <c r="G9" t="s">
+      <c r="M9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" t="s">
         <v>64</v>
       </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" t="s">
-        <v>75</v>
-      </c>
-      <c r="N9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" t="s">
-        <v>81</v>
-      </c>
       <c r="P9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1959,43 +2211,49 @@
         <v>24</v>
       </c>
       <c r="B10" s="2">
-        <v>45464</v>
+        <v>45470</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" t="s">
         <v>64</v>
       </c>
-      <c r="H10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O10" t="s">
-        <v>81</v>
-      </c>
       <c r="P10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2003,49 +2261,49 @@
         <v>25</v>
       </c>
       <c r="B11" s="2">
-        <v>45464</v>
+        <v>45470</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11">
+        <v>120</v>
+      </c>
+      <c r="K11">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" t="s">
         <v>65</v>
       </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11">
-        <v>55</v>
-      </c>
-      <c r="K11">
-        <v>35</v>
-      </c>
-      <c r="L11" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" t="s">
-        <v>80</v>
-      </c>
       <c r="P11" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2053,299 +2311,49 @@
         <v>26</v>
       </c>
       <c r="B12" s="2">
-        <v>45465</v>
+        <v>45470</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="J12">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K12">
         <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="N12" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="P12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2">
-        <v>45465</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13">
-        <v>200</v>
-      </c>
-      <c r="K13">
-        <v>90</v>
-      </c>
-      <c r="L13" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" t="s">
-        <v>77</v>
-      </c>
-      <c r="O13" t="s">
-        <v>80</v>
-      </c>
-      <c r="P13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2">
-        <v>45465</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14">
-        <v>39</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14">
-        <v>180</v>
-      </c>
-      <c r="K14">
-        <v>150</v>
-      </c>
-      <c r="L14" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" t="s">
-        <v>77</v>
-      </c>
-      <c r="O14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2">
-        <v>45465</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15">
-        <v>95</v>
-      </c>
-      <c r="K15">
-        <v>50</v>
-      </c>
-      <c r="L15" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" t="s">
-        <v>77</v>
-      </c>
-      <c r="O15" t="s">
-        <v>80</v>
-      </c>
-      <c r="P15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2">
-        <v>45465</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16">
-        <v>50</v>
-      </c>
-      <c r="K16">
-        <v>35</v>
-      </c>
-      <c r="L16" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N16" t="s">
-        <v>79</v>
-      </c>
-      <c r="O16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2">
-        <v>45465</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17">
-        <v>65</v>
-      </c>
-      <c r="K17">
-        <v>40</v>
-      </c>
-      <c r="L17" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" t="s">
-        <v>76</v>
-      </c>
-      <c r="N17" t="s">
-        <v>79</v>
-      </c>
-      <c r="O17" t="s">
-        <v>82</v>
-      </c>
-      <c r="P17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
